--- a/AoC_2024/Day_08.xlsx
+++ b/AoC_2024/Day_08.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AOC_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882912E-4528-49FE-B909-F283A325E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A15609-8F80-41BE-ABA6-2C781A1F6CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="330" windowWidth="28725" windowHeight="17010" xr2:uid="{2D3E98B1-338A-42D9-AB1A-8AA7329351DE}"/>
+    <workbookView xWindow="8505" yWindow="1020" windowWidth="27060" windowHeight="16965" xr2:uid="{2D3E98B1-338A-42D9-AB1A-8AA7329351DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1-PY" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja2-Excel" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2-Excel2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +97,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="123">
   <si>
     <t>........5..................................e..3...</t>
   </si>
@@ -4682,13 +4683,1951 @@
   </si>
   <si>
     <t>Credits: Excel Wizard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, A1:A50,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TOCOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TOCOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ROWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(@+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REDUCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAMBDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VSTACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>XLOOKUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ROWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ISNUMBER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>XMATCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REDUCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAMBDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VSTACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REDUCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>XLOOKUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAMBDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VSTACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))))))</t>
+    </r>
+  </si>
+  <si>
+    <t>    ),</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>reb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ROWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VSTACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>reb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Sols Part 1 &amp; 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4805,6 +6744,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4826,7 +6784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4834,11 +6792,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4871,18 +6844,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5FC8D503-AFA7-41F3-8A4B-6FBEFB7B4177}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5336,7 +7314,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="139" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="425" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -5354,6 +7332,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -5368,7 +7349,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6097,7 +8078,7 @@
         <f t="array" ref="O2">_xlfn.LET(_xlpm.c, _xlfn.SEQUENCE(, LEN(A3)), _xlpm.m, MID(A3:A14, _xlpm.c, 1), _xlpm.n, IF(_xlpm.m &gt; ".", CODE(_xlpm.m), 0), _xlpm.u, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.n)), _xlpm.rc, _xlfn.SEQUENCE(ROWS(_xlpm.m)) * 1000 + _xlpm.c, _xlpm.at, _xlfn.REDUCE(, _xlpm.u, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.i, _xlfn.TOCOL(_xlfn.IFS(_xlpm.n = _xlpm.v, _xlpm.rc), 3), _xlpm.j, _xlfn.TOROW(_xlpm.i), _xlpm.d, _xlpm.i - _xlpm.j, _xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.a, _xlfn.TOCOL(IF(_xlpm.d, _xlpm.i + _xlpm.d, 0), 3)))))), COUNT(_xlfn.XMATCH(_xlpm.rc, _xlpm.at)))</f>
         <v>14</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6142,7 +8123,7 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6186,7 +8167,7 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6230,7 +8211,7 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6274,7 +8255,7 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6318,7 +8299,7 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6362,7 +8343,7 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6406,7 +8387,7 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6450,7 +8431,7 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6494,7 +8475,7 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6538,7 +8519,7 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6582,12 +8563,12 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C14">
@@ -6626,22 +8607,22 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6650,22 +8631,22 @@
         <f t="array" ref="O20">_xlfn.LET(_xlpm.c, _xlfn.SEQUENCE(, LEN(A3)), _xlpm.m, MID(A3:A14, _xlpm.c, 1), _xlpm.n, IF(_xlpm.m &gt; ".", CODE(_xlpm.m), 0), _xlpm.u, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.n)), _xlpm.rc, _xlfn.SEQUENCE(ROWS(_xlpm.m)) * 1000 + _xlpm.c, _xlpm.at, _xlfn.REDUCE(, _xlpm.u, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.i, _xlfn.TOCOL(_xlfn.IFS(_xlpm.n = _xlpm.v, _xlpm.rc), 3), _xlpm.j, _xlfn.TOROW(_xlpm.i), _xlpm.ij, _xlfn.TOCOL(IF(_xlpm.j, _xlpm.i)), _xlpm.d, _xlfn.TOCOL(_xlpm.i - _xlpm.j), _xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.a, _xlfn.REDUCE(0, _xlfn.SEQUENCE(ROWS(_xlpm.d)), _xlfn.LAMBDA(_xlpm.b,_xlpm.l, _xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.b, INDEX(_xlpm.ij, _xlpm.l) + INDEX(_xlpm.d, _xlpm.l) * _xlfn.TOCOL(_xlpm.c)))))))))), COUNT(_xlfn.XMATCH(_xlpm.rc, _xlpm.at)))</f>
         <v>34</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6673,7 +8654,7 @@
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6685,7 +8666,7 @@
         <f t="array" ref="B25">_xlfn.LET(_xlpm.c, _xlfn.SEQUENCE(, LEN(A25)), _xlpm.m, MID(A25:A74, _xlpm.c, 1), _xlpm.n, IF(_xlpm.m &gt; ".", CODE(_xlpm.m), 0), _xlpm.u, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.n)), _xlpm.rc, _xlfn.SEQUENCE(ROWS(_xlpm.m)) * 1000 + _xlpm.c, _xlpm.at, _xlfn.REDUCE(, _xlpm.u, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.i, _xlfn.TOCOL(_xlfn.IFS(_xlpm.n = _xlpm.v, _xlpm.rc), 3), _xlpm.j, _xlfn.TOROW(_xlpm.i), _xlpm.d, _xlpm.i - _xlpm.j, _xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.a, _xlfn.TOCOL(IF(_xlpm.d, _xlpm.i + _xlpm.d, 0), 3)))))), COUNT(_xlfn.XMATCH(_xlpm.rc, _xlpm.at)))</f>
         <v>228</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6696,7 +8677,7 @@
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6707,7 +8688,7 @@
       <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6719,7 +8700,7 @@
         <f t="array" ref="B28">_xlfn.LET(_xlpm.c, _xlfn.SEQUENCE(, LEN(A25)), _xlpm.m, MID(A25:A74, _xlpm.c, 1), _xlpm.n, IF(_xlpm.m &gt; ".", CODE(_xlpm.m), 0), _xlpm.u, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.n)), _xlpm.rc, _xlfn.SEQUENCE(ROWS(_xlpm.m)) * 1000 + _xlpm.c, _xlpm.at, _xlfn.REDUCE(, _xlpm.u, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.i, _xlfn.TOCOL(_xlfn.IFS(_xlpm.n = _xlpm.v, _xlpm.rc), 3), _xlpm.j, _xlfn.TOROW(_xlpm.i), _xlpm.ij, _xlfn.TOCOL(IF(_xlpm.j, _xlpm.i)), _xlpm.d, _xlfn.TOCOL(_xlpm.i - _xlpm.j), _xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.a, _xlfn.REDUCE(0, _xlfn.SEQUENCE(ROWS(_xlpm.d)), _xlfn.LAMBDA(_xlpm.b,_xlpm.l, _xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.b, INDEX(_xlpm.ij, _xlpm.l) + INDEX(_xlpm.d, _xlpm.l) * _xlfn.TOCOL(_xlpm.c)))))))))), COUNT(_xlfn.XMATCH(_xlpm.rc, _xlpm.at)))</f>
         <v>766</v>
       </c>
-      <c r="Q28" s="15" t="s">
+      <c r="Q28" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6730,7 +8711,7 @@
       <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6741,7 +8722,7 @@
       <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6752,7 +8733,7 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="Q31" s="15" t="s">
+      <c r="Q31" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6763,7 +8744,7 @@
       <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="Q32" s="15" t="s">
+      <c r="Q32" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6774,7 +8755,7 @@
       <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6785,7 +8766,7 @@
       <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="Q34" s="15" t="s">
+      <c r="Q34" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6796,7 +8777,7 @@
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="Q35" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6807,7 +8788,7 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="14" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6818,7 +8799,7 @@
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6829,7 +8810,7 @@
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6840,7 +8821,7 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="Q39" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6851,7 +8832,7 @@
       <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6862,7 +8843,7 @@
       <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="Q41" s="15" t="s">
+      <c r="Q41" s="14" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6873,7 +8854,7 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="Q42" s="15" t="s">
+      <c r="Q42" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7131,6 +9112,328 @@
       </c>
       <c r="B74" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A67ED7-4D80-4985-BEA7-6570F17C933C}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18" cm="1">
+        <f t="array" ref="C5:C6">_xlfn.LET(_xlpm.a, A1:A50, _xlpm.b, CODE(MID(_xlpm.a, _xlfn.SEQUENCE(, LEN(_xlfn.SINGLE(+_xlpm.a))), 1)), _xlpm.c, _xlfn.TOCOL(_xlpm.b), _xlpm.d, _xlfn.TOCOL(_xlfn.SEQUENCE(ROWS(_xlpm.a)) * 1000 + _xlfn.SEQUENCE(, LEN(INDEX(_xlpm.a, 1)))), _xlpm.ea, _xlfn.REDUCE(0, _xlfn._xlws.FILTER(_xlpm.d, _xlpm.c &lt;&gt; CODE(".")), _xlfn.LAMBDA(_xlpm.x,_xlpm.y, _xlfn.VSTACK(_xlpm.x, 2 * _xlpm.y - _xlfn._xlws.FILTER(_xlpm.d, (_xlpm.c = _xlfn.XLOOKUP(_xlpm.y, _xlpm.d, _xlpm.c)) * (_xlpm.d &lt;&gt; _xlpm.y))))), _xlpm.rea, ROWS(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.ea, ISNUMBER(_xlfn.XMATCH(_xlpm.ea, _xlpm.d))))), _xlpm.eb, _xlfn.REDUCE(0, _xlfn._xlws.FILTER(_xlpm.d, _xlpm.c &lt;&gt; CODE(".")), _xlfn.LAMBDA(_xlpm.x,_xlpm.y, _xlfn.VSTACK(_xlpm.x, _xlfn.REDUCE(0, _xlpm.y - _xlfn._xlws.FILTER(_xlpm.d, (_xlpm.c = _xlfn.XLOOKUP(_xlpm.y, _xlpm.d, _xlpm.c)) * (_xlpm.d &lt;&gt; _xlpm.y)), _xlfn.LAMBDA(_xlpm.r,_xlpm.s, _xlfn.VSTACK(_xlpm.r, _xlfn._xlws.FILTER(_xlpm.d, MOD(_xlpm.d - _xlpm.y, _xlpm.s) = 0, 0))))))), _xlpm.reb, ROWS(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.eb, _xlpm.eb &lt;&gt; 0))), _xlfn.VSTACK(_xlpm.rea, _xlpm.reb))</f>
+        <v>228</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18">
+        <v>766</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
